--- a/rasp_data/РТС_5 курс_21-22_осень.xlsx
+++ b/rasp_data/РТС_5 курс_21-22_осень.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\umu-rasp\Pub\Осень_21-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Новая папка\Pub\Осень_21-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="117">
   <si>
     <t>День недели</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Корабейников Д.Н.</t>
   </si>
   <si>
-    <t>РСК</t>
-  </si>
-  <si>
     <t>Майстренко Е.В.</t>
   </si>
   <si>
@@ -377,10 +374,6 @@
   <si>
     <t>1,5,9,13 н. Устройства приема и преобразования сигналов (1 п/г)
 3,7,11,15 н. Устройства приема и преобразования сигналов (2 п/г)</t>
-  </si>
-  <si>
-    <t>Б-323
-Б-323</t>
   </si>
   <si>
     <t>Солдатов Е.В.
@@ -417,19 +410,10 @@
     <t>Б-326</t>
   </si>
   <si>
-    <t>Б-323</t>
-  </si>
-  <si>
     <t>Б-202</t>
   </si>
   <si>
     <t>Б-314</t>
-  </si>
-  <si>
-    <t>Б-314
-Б-314
-Б-323
-Б-323</t>
   </si>
   <si>
     <t>Б-302</t>
@@ -440,12 +424,32 @@
   <si>
     <t>Б-316</t>
   </si>
+  <si>
+    <t>Симонян А.А.
+Симонян А.А.</t>
+  </si>
+  <si>
+    <t>Симонян А.А.</t>
+  </si>
+  <si>
+    <t>Б-420
+Б-420</t>
+  </si>
+  <si>
+    <t>Б-420</t>
+  </si>
+  <si>
+    <t>Б-314
+Б-314
+Б-420
+Б-420</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,42 +773,45 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arimo"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arimo"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arimo"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Arimo"/>
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="14"/>
       <name val="Arimo"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arimo"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -949,14 +956,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1554,12 +1555,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1892,7 +1908,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1913,10 +1929,10 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="18" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1928,19 +1944,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="24" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2019,11 +2032,10 @@
     <xf numFmtId="0" fontId="25" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2041,7 +2053,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2277,7 +2307,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -2306,40 +2336,40 @@
   <sheetData>
     <row r="1" spans="1:20" s="122" customFormat="1" ht="112.5" customHeight="1" thickBot="1">
       <c r="A1" s="120"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
-      <c r="N1" s="142"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="141"/>
       <c r="O1" s="121"/>
-      <c r="P1" s="143" t="s">
+      <c r="P1" s="142" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="145"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="144"/>
       <c r="T1" s="121"/>
     </row>
     <row r="2" spans="1:20" s="91" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="158"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="157"/>
       <c r="F2" s="119" t="s">
         <v>2</v>
       </c>
@@ -2381,7 +2411,7 @@
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" ht="65.25" customHeight="1" thickBot="1">
-      <c r="A3" s="147"/>
+      <c r="A3" s="146"/>
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2441,16 +2471,16 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="148">
+      <c r="B4" s="147">
         <v>1</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="149" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -2491,10 +2521,10 @@
       <c r="T4" s="53"/>
     </row>
     <row r="5" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A5" s="161"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="151"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
       <c r="E5" s="19" t="s">
         <v>21</v>
       </c>
@@ -2523,7 +2553,7 @@
         <v>61</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S5" s="73" t="s">
         <v>86</v>
@@ -2531,14 +2561,14 @@
       <c r="T5" s="53"/>
     </row>
     <row r="6" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A6" s="161"/>
-      <c r="B6" s="159">
+      <c r="A6" s="160"/>
+      <c r="B6" s="158">
         <v>2</v>
       </c>
-      <c r="C6" s="152" t="s">
+      <c r="C6" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="152" t="s">
+      <c r="D6" s="151" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="20" t="s">
@@ -2579,10 +2609,10 @@
       <c r="T6" s="53"/>
     </row>
     <row r="7" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A7" s="161"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
       <c r="E7" s="20" t="s">
         <v>21</v>
       </c>
@@ -2627,14 +2657,14 @@
       <c r="T7" s="53"/>
     </row>
     <row r="8" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A8" s="161"/>
-      <c r="B8" s="159">
+      <c r="A8" s="160"/>
+      <c r="B8" s="158">
         <v>3</v>
       </c>
-      <c r="C8" s="152" t="s">
+      <c r="C8" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="151" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="20" t="s">
@@ -2675,10 +2705,10 @@
       <c r="T8" s="15"/>
     </row>
     <row r="9" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A9" s="161"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
       <c r="E9" s="20" t="s">
         <v>21</v>
       </c>
@@ -2711,14 +2741,14 @@
       <c r="T9" s="53"/>
     </row>
     <row r="10" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A10" s="161"/>
-      <c r="B10" s="159">
+      <c r="A10" s="160"/>
+      <c r="B10" s="158">
         <v>4</v>
       </c>
-      <c r="C10" s="152" t="s">
+      <c r="C10" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="151" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="20" t="s">
@@ -2759,10 +2789,10 @@
       <c r="T10" s="15"/>
     </row>
     <row r="11" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A11" s="161"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
       <c r="E11" s="20" t="s">
         <v>21</v>
       </c>
@@ -2789,14 +2819,14 @@
       <c r="T11" s="53"/>
     </row>
     <row r="12" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A12" s="161"/>
-      <c r="B12" s="159">
+      <c r="A12" s="160"/>
+      <c r="B12" s="158">
         <v>5</v>
       </c>
-      <c r="C12" s="152" t="s">
+      <c r="C12" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="152" t="s">
+      <c r="D12" s="151" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="20" t="s">
@@ -2819,10 +2849,10 @@
       <c r="T12" s="15"/>
     </row>
     <row r="13" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A13" s="161"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
+      <c r="A13" s="160"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
       <c r="E13" s="20" t="s">
         <v>21</v>
       </c>
@@ -2845,14 +2875,14 @@
       <c r="T13" s="15"/>
     </row>
     <row r="14" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A14" s="161"/>
-      <c r="B14" s="153">
+      <c r="A14" s="160"/>
+      <c r="B14" s="152">
         <v>6</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="153" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="20" t="s">
@@ -2875,10 +2905,10 @@
       <c r="T14" s="15"/>
     </row>
     <row r="15" spans="1:20" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="A15" s="162"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
+      <c r="A15" s="161"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
       <c r="E15" s="23" t="s">
         <v>21</v>
       </c>
@@ -2899,16 +2929,16 @@
       <c r="T15" s="25"/>
     </row>
     <row r="16" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="148">
+      <c r="B16" s="147">
         <v>1</v>
       </c>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="150" t="s">
+      <c r="D16" s="149" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="11" t="s">
@@ -2931,10 +2961,10 @@
       <c r="T16" s="15"/>
     </row>
     <row r="17" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A17" s="161"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
       <c r="E17" s="19" t="s">
         <v>21</v>
       </c>
@@ -2955,14 +2985,14 @@
       <c r="T17" s="77"/>
     </row>
     <row r="18" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A18" s="161"/>
-      <c r="B18" s="159">
+      <c r="A18" s="160"/>
+      <c r="B18" s="158">
         <v>2</v>
       </c>
-      <c r="C18" s="152" t="s">
+      <c r="C18" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="152" t="s">
+      <c r="D18" s="151" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="20" t="s">
@@ -2988,15 +3018,15 @@
         <v>64</v>
       </c>
       <c r="S18" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T18" s="15"/>
     </row>
     <row r="19" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A19" s="161"/>
-      <c r="B19" s="149"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
       <c r="E19" s="20" t="s">
         <v>21</v>
       </c>
@@ -3010,7 +3040,7 @@
         <v>73</v>
       </c>
       <c r="I19" s="131" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J19" s="77"/>
       <c r="K19" s="96"/>
@@ -3021,18 +3051,18 @@
       <c r="P19" s="96"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="110"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="77"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="186"/>
     </row>
     <row r="20" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A20" s="161"/>
-      <c r="B20" s="159">
+      <c r="A20" s="160"/>
+      <c r="B20" s="158">
         <v>3</v>
       </c>
-      <c r="C20" s="152" t="s">
+      <c r="C20" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="152" t="s">
+      <c r="D20" s="151" t="s">
         <v>25</v>
       </c>
       <c r="E20" s="20" t="s">
@@ -3053,7 +3083,7 @@
         <v>64</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O20" s="77"/>
       <c r="P20" s="96" t="s">
@@ -3066,15 +3096,15 @@
         <v>81</v>
       </c>
       <c r="S20" s="131" t="s">
-        <v>109</v>
-      </c>
-      <c r="T20" s="77"/>
+        <v>115</v>
+      </c>
+      <c r="T20" s="186"/>
     </row>
     <row r="21" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A21" s="161"/>
-      <c r="B21" s="149"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
+      <c r="A21" s="160"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
       <c r="E21" s="20" t="s">
         <v>21</v>
       </c>
@@ -3088,13 +3118,13 @@
         <v>73</v>
       </c>
       <c r="I21" s="131" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J21" s="77"/>
       <c r="K21" s="96"/>
       <c r="L21" s="13"/>
       <c r="M21" s="110"/>
-      <c r="N21" s="15"/>
+      <c r="N21" s="131"/>
       <c r="O21" s="77"/>
       <c r="P21" s="97" t="s">
         <v>84</v>
@@ -3106,19 +3136,19 @@
         <v>81</v>
       </c>
       <c r="S21" s="131" t="s">
-        <v>109</v>
-      </c>
-      <c r="T21" s="77"/>
+        <v>115</v>
+      </c>
+      <c r="T21" s="186"/>
     </row>
     <row r="22" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A22" s="161"/>
-      <c r="B22" s="159">
+      <c r="A22" s="160"/>
+      <c r="B22" s="158">
         <v>4</v>
       </c>
-      <c r="C22" s="152" t="s">
+      <c r="C22" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="152" t="s">
+      <c r="D22" s="151" t="s">
         <v>27</v>
       </c>
       <c r="E22" s="20" t="s">
@@ -3139,7 +3169,7 @@
         <v>81</v>
       </c>
       <c r="N22" s="131" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="O22" s="77"/>
       <c r="P22" s="103" t="s">
@@ -3152,15 +3182,15 @@
         <v>91</v>
       </c>
       <c r="S22" s="131" t="s">
-        <v>110</v>
-      </c>
-      <c r="T22" s="77"/>
+        <v>107</v>
+      </c>
+      <c r="T22" s="186"/>
     </row>
     <row r="23" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A23" s="161"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
+      <c r="A23" s="160"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
       <c r="E23" s="20" t="s">
         <v>21</v>
       </c>
@@ -3174,7 +3204,7 @@
         <v>63</v>
       </c>
       <c r="I23" s="131" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J23" s="77"/>
       <c r="K23" s="97" t="s">
@@ -3187,7 +3217,7 @@
         <v>81</v>
       </c>
       <c r="N23" s="131" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="O23" s="77"/>
       <c r="P23" s="103" t="s">
@@ -3200,19 +3230,19 @@
         <v>60</v>
       </c>
       <c r="S23" s="131" t="s">
-        <v>111</v>
-      </c>
-      <c r="T23" s="77"/>
+        <v>108</v>
+      </c>
+      <c r="T23" s="186"/>
     </row>
     <row r="24" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A24" s="161"/>
-      <c r="B24" s="159">
+      <c r="A24" s="160"/>
+      <c r="B24" s="158">
         <v>5</v>
       </c>
-      <c r="C24" s="152" t="s">
+      <c r="C24" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="152" t="s">
+      <c r="D24" s="151" t="s">
         <v>29</v>
       </c>
       <c r="E24" s="20" t="s">
@@ -3233,7 +3263,7 @@
         <v>91</v>
       </c>
       <c r="N24" s="131" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O24" s="77"/>
       <c r="P24" s="96" t="s">
@@ -3245,16 +3275,16 @@
       <c r="R24" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="S24" s="187" t="s">
-        <v>115</v>
-      </c>
-      <c r="T24" s="77"/>
+      <c r="S24" s="131" t="s">
+        <v>111</v>
+      </c>
+      <c r="T24" s="186"/>
     </row>
     <row r="25" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A25" s="161"/>
-      <c r="B25" s="149"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
+      <c r="A25" s="160"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
       <c r="E25" s="20" t="s">
         <v>21</v>
       </c>
@@ -3264,11 +3294,11 @@
       <c r="G25" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H25" s="135" t="s">
-        <v>92</v>
+      <c r="H25" s="138" t="s">
+        <v>113</v>
       </c>
       <c r="I25" s="131" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J25" s="53"/>
       <c r="K25" s="103" t="s">
@@ -3281,7 +3311,7 @@
         <v>60</v>
       </c>
       <c r="N25" s="131" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O25" s="77"/>
       <c r="P25" s="96" t="s">
@@ -3294,19 +3324,19 @@
         <v>63</v>
       </c>
       <c r="S25" s="131" t="s">
-        <v>108</v>
-      </c>
-      <c r="T25" s="77"/>
+        <v>106</v>
+      </c>
+      <c r="T25" s="186"/>
     </row>
     <row r="26" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A26" s="161"/>
-      <c r="B26" s="153">
+      <c r="A26" s="160"/>
+      <c r="B26" s="152">
         <v>6</v>
       </c>
-      <c r="C26" s="154" t="s">
+      <c r="C26" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="154" t="s">
+      <c r="D26" s="153" t="s">
         <v>31</v>
       </c>
       <c r="E26" s="20" t="s">
@@ -3326,21 +3356,21 @@
       <c r="M26" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="N26" s="187" t="s">
-        <v>115</v>
+      <c r="N26" s="131" t="s">
+        <v>111</v>
       </c>
       <c r="O26" s="77"/>
       <c r="P26" s="93"/>
       <c r="Q26" s="13"/>
       <c r="R26" s="14"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="77"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="186"/>
     </row>
     <row r="27" spans="1:20" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="A27" s="162"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
+      <c r="A27" s="161"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
       <c r="E27" s="23" t="s">
         <v>21</v>
       </c>
@@ -3354,7 +3384,7 @@
         <v>60</v>
       </c>
       <c r="I27" s="132" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J27" s="61"/>
       <c r="K27" s="129" t="s">
@@ -3367,26 +3397,26 @@
         <v>63</v>
       </c>
       <c r="N27" s="132" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O27" s="61"/>
       <c r="P27" s="99"/>
       <c r="Q27" s="100"/>
       <c r="R27" s="101"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="62"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="187"/>
     </row>
     <row r="28" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A28" s="164" t="s">
+      <c r="A28" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="148">
+      <c r="B28" s="147">
         <v>1</v>
       </c>
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="150" t="s">
+      <c r="D28" s="149" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -3400,19 +3430,19 @@
       <c r="K28" s="98"/>
       <c r="L28" s="60"/>
       <c r="M28" s="63"/>
-      <c r="N28" s="21"/>
+      <c r="N28" s="185"/>
       <c r="O28" s="21"/>
       <c r="P28" s="107"/>
       <c r="Q28" s="60"/>
       <c r="R28" s="63"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="21"/>
+      <c r="S28" s="188"/>
+      <c r="T28" s="185"/>
     </row>
     <row r="29" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A29" s="161"/>
-      <c r="B29" s="149"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
+      <c r="A29" s="160"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
       <c r="E29" s="19" t="s">
         <v>21</v>
       </c>
@@ -3424,23 +3454,23 @@
       <c r="K29" s="104"/>
       <c r="L29" s="92"/>
       <c r="M29" s="13"/>
-      <c r="N29" s="71"/>
+      <c r="N29" s="137"/>
       <c r="O29" s="15"/>
       <c r="P29" s="105"/>
       <c r="Q29" s="94"/>
       <c r="R29" s="14"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="131"/>
     </row>
     <row r="30" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A30" s="161"/>
-      <c r="B30" s="159">
+      <c r="A30" s="160"/>
+      <c r="B30" s="158">
         <v>2</v>
       </c>
-      <c r="C30" s="152" t="s">
+      <c r="C30" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="152" t="s">
+      <c r="D30" s="151" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="20" t="s">
@@ -3454,19 +3484,19 @@
       <c r="K30" s="98"/>
       <c r="L30" s="60"/>
       <c r="M30" s="63"/>
-      <c r="N30" s="15"/>
+      <c r="N30" s="131"/>
       <c r="O30" s="53"/>
       <c r="P30" s="96"/>
       <c r="Q30" s="13"/>
       <c r="R30" s="14"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="53"/>
+      <c r="S30" s="188"/>
+      <c r="T30" s="189"/>
     </row>
     <row r="31" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A31" s="161"/>
-      <c r="B31" s="149"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
+      <c r="A31" s="160"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
       <c r="E31" s="20" t="s">
         <v>21</v>
       </c>
@@ -3478,65 +3508,65 @@
       <c r="K31" s="104"/>
       <c r="L31" s="92"/>
       <c r="M31" s="13"/>
-      <c r="N31" s="71"/>
+      <c r="N31" s="137"/>
       <c r="O31" s="15"/>
       <c r="P31" s="105"/>
       <c r="Q31" s="94"/>
       <c r="R31" s="14"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="15"/>
+      <c r="S31" s="137"/>
+      <c r="T31" s="131"/>
     </row>
     <row r="32" spans="1:20" ht="72.75" customHeight="1">
-      <c r="A32" s="161"/>
-      <c r="B32" s="159">
+      <c r="A32" s="160"/>
+      <c r="B32" s="158">
         <v>3</v>
       </c>
-      <c r="C32" s="152" t="s">
+      <c r="C32" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="152" t="s">
+      <c r="D32" s="151" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H32" s="136" t="s">
-        <v>92</v>
+      <c r="H32" s="139" t="s">
+        <v>112</v>
       </c>
       <c r="I32" s="71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J32" s="53"/>
       <c r="K32" s="98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L32" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M32" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="M32" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="N32" s="138" t="s">
-        <v>112</v>
+      <c r="N32" s="136" t="s">
+        <v>116</v>
       </c>
       <c r="O32" s="53"/>
       <c r="P32" s="104"/>
       <c r="Q32" s="92"/>
       <c r="R32" s="13"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="53"/>
+      <c r="S32" s="137"/>
+      <c r="T32" s="189"/>
     </row>
     <row r="33" spans="1:20" ht="72.75" customHeight="1">
-      <c r="A33" s="161"/>
-      <c r="B33" s="149"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
+      <c r="A33" s="160"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
       <c r="E33" s="20" t="s">
         <v>21</v>
       </c>
@@ -3550,79 +3580,79 @@
         <v>73</v>
       </c>
       <c r="I33" s="71" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="102"/>
       <c r="L33" s="13"/>
       <c r="M33" s="14"/>
-      <c r="N33" s="139"/>
+      <c r="N33" s="137"/>
       <c r="O33" s="15"/>
       <c r="P33" s="98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q33" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="R33" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="R33" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="S33" s="138" t="s">
-        <v>112</v>
-      </c>
-      <c r="T33" s="15"/>
+      <c r="S33" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="T33" s="131"/>
     </row>
     <row r="34" spans="1:20" ht="68.25" customHeight="1">
-      <c r="A34" s="161"/>
-      <c r="B34" s="159">
+      <c r="A34" s="160"/>
+      <c r="B34" s="158">
         <v>4</v>
       </c>
-      <c r="C34" s="152" t="s">
+      <c r="C34" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="152" t="s">
+      <c r="D34" s="151" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="103" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="136" t="s">
-        <v>92</v>
+      <c r="H34" s="139" t="s">
+        <v>112</v>
       </c>
       <c r="I34" s="71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J34" s="53"/>
       <c r="K34" s="98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L34" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="M34" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="M34" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="N34" s="138" t="s">
-        <v>112</v>
+      <c r="N34" s="136" t="s">
+        <v>116</v>
       </c>
       <c r="O34" s="53"/>
       <c r="P34" s="98"/>
       <c r="Q34" s="13"/>
       <c r="R34" s="14"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="53"/>
+      <c r="S34" s="188"/>
+      <c r="T34" s="189"/>
     </row>
     <row r="35" spans="1:20" ht="74.25" customHeight="1">
-      <c r="A35" s="161"/>
-      <c r="B35" s="149"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
+      <c r="A35" s="160"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
       <c r="E35" s="20" t="s">
         <v>21</v>
       </c>
@@ -3636,79 +3666,79 @@
         <v>91</v>
       </c>
       <c r="I35" s="71" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="105"/>
       <c r="L35" s="94"/>
       <c r="M35" s="14"/>
-      <c r="N35" s="15"/>
+      <c r="N35" s="131"/>
       <c r="O35" s="53"/>
       <c r="P35" s="98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q35" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="R35" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="R35" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="S35" s="138" t="s">
-        <v>112</v>
-      </c>
-      <c r="T35" s="15"/>
+      <c r="S35" s="136" t="s">
+        <v>116</v>
+      </c>
+      <c r="T35" s="131"/>
     </row>
     <row r="36" spans="1:20" ht="65.25" customHeight="1">
-      <c r="A36" s="161"/>
-      <c r="B36" s="159">
+      <c r="A36" s="160"/>
+      <c r="B36" s="158">
         <v>5</v>
       </c>
-      <c r="C36" s="152" t="s">
+      <c r="C36" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="152" t="s">
+      <c r="D36" s="151" t="s">
         <v>29</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H36" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="136" t="s">
         <v>100</v>
-      </c>
-      <c r="I36" s="138" t="s">
-        <v>102</v>
       </c>
       <c r="J36" s="53"/>
       <c r="K36" s="93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L36" s="13" t="s">
         <v>62</v>
       </c>
       <c r="M36" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="N36" s="138" t="s">
         <v>99</v>
+      </c>
+      <c r="N36" s="136" t="s">
+        <v>114</v>
       </c>
       <c r="O36" s="15"/>
       <c r="P36" s="93"/>
       <c r="Q36" s="13"/>
       <c r="R36" s="14"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
+      <c r="S36" s="131"/>
+      <c r="T36" s="131"/>
     </row>
     <row r="37" spans="1:20" ht="65.25" customHeight="1">
-      <c r="A37" s="161"/>
-      <c r="B37" s="149"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
+      <c r="A37" s="160"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
       <c r="E37" s="20" t="s">
         <v>21</v>
       </c>
@@ -3721,80 +3751,80 @@
       <c r="H37" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="139" t="s">
-        <v>110</v>
+      <c r="I37" s="137" t="s">
+        <v>107</v>
       </c>
       <c r="J37" s="53"/>
       <c r="K37" s="105"/>
       <c r="L37" s="13"/>
       <c r="M37" s="14"/>
-      <c r="N37" s="15"/>
+      <c r="N37" s="131"/>
       <c r="O37" s="53"/>
       <c r="P37" s="93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q37" s="13" t="s">
         <v>62</v>
       </c>
       <c r="R37" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="S37" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="T37" s="53"/>
+      <c r="S37" s="136" t="s">
+        <v>114</v>
+      </c>
+      <c r="T37" s="189"/>
     </row>
     <row r="38" spans="1:20" ht="63.75" customHeight="1">
-      <c r="A38" s="161"/>
-      <c r="B38" s="153">
+      <c r="A38" s="160"/>
+      <c r="B38" s="152">
         <v>6</v>
       </c>
-      <c r="C38" s="154" t="s">
+      <c r="C38" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="154" t="s">
+      <c r="D38" s="153" t="s">
         <v>31</v>
       </c>
       <c r="E38" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>62</v>
       </c>
       <c r="H38" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="136" t="s">
         <v>100</v>
-      </c>
-      <c r="I38" s="138" t="s">
-        <v>102</v>
       </c>
       <c r="J38" s="53"/>
       <c r="K38" s="93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>62</v>
       </c>
       <c r="M38" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="N38" s="138" t="s">
         <v>99</v>
+      </c>
+      <c r="N38" s="136" t="s">
+        <v>114</v>
       </c>
       <c r="O38" s="15"/>
       <c r="P38" s="93"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="14"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
+      <c r="S38" s="131"/>
+      <c r="T38" s="131"/>
     </row>
     <row r="39" spans="1:20" ht="69.75" customHeight="1" thickBot="1">
-      <c r="A39" s="162"/>
-      <c r="B39" s="147"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="155"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
       <c r="E39" s="23" t="s">
         <v>21</v>
       </c>
@@ -3808,39 +3838,39 @@
         <v>91</v>
       </c>
       <c r="I39" s="133" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J39" s="61"/>
       <c r="K39" s="106"/>
       <c r="L39" s="24"/>
       <c r="M39" s="95"/>
-      <c r="N39" s="59"/>
+      <c r="N39" s="132"/>
       <c r="O39" s="61"/>
       <c r="P39" s="125" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q39" s="58" t="s">
         <v>62</v>
       </c>
       <c r="R39" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="S39" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="T39" s="62"/>
+      <c r="S39" s="190" t="s">
+        <v>114</v>
+      </c>
+      <c r="T39" s="191"/>
     </row>
     <row r="40" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A40" s="165" t="s">
+      <c r="A40" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="148">
+      <c r="B40" s="147">
         <v>1</v>
       </c>
-      <c r="C40" s="150" t="s">
+      <c r="C40" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="150" t="s">
+      <c r="D40" s="149" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="11" t="s">
@@ -3887,10 +3917,10 @@
       <c r="T40" s="64"/>
     </row>
     <row r="41" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A41" s="161"/>
-      <c r="B41" s="149"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="151"/>
+      <c r="A41" s="160"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150"/>
       <c r="E41" s="19" t="s">
         <v>21</v>
       </c>
@@ -3935,14 +3965,14 @@
       <c r="T41" s="53"/>
     </row>
     <row r="42" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A42" s="161"/>
-      <c r="B42" s="159">
+      <c r="A42" s="160"/>
+      <c r="B42" s="158">
         <v>2</v>
       </c>
-      <c r="C42" s="152" t="s">
+      <c r="C42" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="152" t="s">
+      <c r="D42" s="151" t="s">
         <v>23</v>
       </c>
       <c r="E42" s="20" t="s">
@@ -3989,10 +4019,10 @@
       <c r="T42" s="53"/>
     </row>
     <row r="43" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A43" s="161"/>
-      <c r="B43" s="149"/>
-      <c r="C43" s="151"/>
-      <c r="D43" s="151"/>
+      <c r="A43" s="160"/>
+      <c r="B43" s="148"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="150"/>
       <c r="E43" s="20" t="s">
         <v>21</v>
       </c>
@@ -4037,14 +4067,14 @@
       <c r="T43" s="53"/>
     </row>
     <row r="44" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A44" s="161"/>
-      <c r="B44" s="159">
+      <c r="A44" s="160"/>
+      <c r="B44" s="158">
         <v>3</v>
       </c>
-      <c r="C44" s="152" t="s">
+      <c r="C44" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="152" t="s">
+      <c r="D44" s="151" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="20" t="s">
@@ -4091,10 +4121,10 @@
       <c r="T44" s="53"/>
     </row>
     <row r="45" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A45" s="161"/>
-      <c r="B45" s="149"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="151"/>
+      <c r="A45" s="160"/>
+      <c r="B45" s="148"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
       <c r="E45" s="20" t="s">
         <v>21</v>
       </c>
@@ -4139,14 +4169,14 @@
       <c r="T45" s="53"/>
     </row>
     <row r="46" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A46" s="161"/>
-      <c r="B46" s="159">
+      <c r="A46" s="160"/>
+      <c r="B46" s="158">
         <v>4</v>
       </c>
-      <c r="C46" s="152" t="s">
+      <c r="C46" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="152" t="s">
+      <c r="D46" s="151" t="s">
         <v>27</v>
       </c>
       <c r="E46" s="20" t="s">
@@ -4193,10 +4223,10 @@
       <c r="T46" s="53"/>
     </row>
     <row r="47" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A47" s="161"/>
-      <c r="B47" s="149"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
+      <c r="A47" s="160"/>
+      <c r="B47" s="148"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
       <c r="E47" s="20" t="s">
         <v>21</v>
       </c>
@@ -4241,14 +4271,14 @@
       <c r="T47" s="15"/>
     </row>
     <row r="48" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A48" s="161"/>
-      <c r="B48" s="159">
+      <c r="A48" s="160"/>
+      <c r="B48" s="158">
         <v>5</v>
       </c>
-      <c r="C48" s="152" t="s">
+      <c r="C48" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="D48" s="152" t="s">
+      <c r="D48" s="151" t="s">
         <v>29</v>
       </c>
       <c r="E48" s="20" t="s">
@@ -4295,10 +4325,10 @@
       <c r="T48" s="15"/>
     </row>
     <row r="49" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A49" s="161"/>
-      <c r="B49" s="149"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="151"/>
+      <c r="A49" s="160"/>
+      <c r="B49" s="148"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="150"/>
       <c r="E49" s="20" t="s">
         <v>21</v>
       </c>
@@ -4343,14 +4373,14 @@
       <c r="T49" s="15"/>
     </row>
     <row r="50" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A50" s="161"/>
-      <c r="B50" s="153">
+      <c r="A50" s="160"/>
+      <c r="B50" s="152">
         <v>6</v>
       </c>
-      <c r="C50" s="154" t="s">
+      <c r="C50" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="D50" s="154" t="s">
+      <c r="D50" s="153" t="s">
         <v>31</v>
       </c>
       <c r="E50" s="20" t="s">
@@ -4373,10 +4403,10 @@
       <c r="T50" s="15"/>
     </row>
     <row r="51" spans="1:20" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="A51" s="162"/>
-      <c r="B51" s="147"/>
-      <c r="C51" s="155"/>
-      <c r="D51" s="155"/>
+      <c r="A51" s="161"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
       <c r="E51" s="23" t="s">
         <v>21</v>
       </c>
@@ -4397,36 +4427,36 @@
       <c r="T51" s="25"/>
     </row>
     <row r="52" spans="1:20" ht="33" customHeight="1">
-      <c r="A52" s="166" t="s">
+      <c r="A52" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="153">
+      <c r="B52" s="152">
         <v>1</v>
       </c>
-      <c r="C52" s="150" t="s">
+      <c r="C52" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="150" t="s">
+      <c r="D52" s="149" t="s">
         <v>19</v>
       </c>
       <c r="E52" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="175" t="s">
+      <c r="F52" s="174" t="s">
         <v>36</v>
       </c>
       <c r="G52" s="13"/>
       <c r="H52" s="14"/>
       <c r="I52" s="15"/>
       <c r="J52" s="21"/>
-      <c r="K52" s="175" t="s">
+      <c r="K52" s="174" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="13"/>
       <c r="M52" s="14"/>
       <c r="N52" s="15"/>
       <c r="O52" s="21"/>
-      <c r="P52" s="175" t="s">
+      <c r="P52" s="174" t="s">
         <v>36</v>
       </c>
       <c r="Q52" s="13"/>
@@ -4435,200 +4465,200 @@
       <c r="T52" s="21"/>
     </row>
     <row r="53" spans="1:20" ht="33" customHeight="1">
-      <c r="A53" s="161"/>
-      <c r="B53" s="149"/>
-      <c r="C53" s="151"/>
-      <c r="D53" s="151"/>
+      <c r="A53" s="160"/>
+      <c r="B53" s="148"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
       <c r="E53" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F53" s="176"/>
+      <c r="F53" s="175"/>
       <c r="G53" s="13"/>
       <c r="H53" s="14"/>
       <c r="I53" s="15"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="176"/>
+      <c r="K53" s="175"/>
       <c r="L53" s="13"/>
       <c r="M53" s="14"/>
       <c r="N53" s="15"/>
       <c r="O53" s="15"/>
-      <c r="P53" s="176"/>
+      <c r="P53" s="175"/>
       <c r="Q53" s="13"/>
       <c r="R53" s="14"/>
       <c r="S53" s="15"/>
       <c r="T53" s="15"/>
     </row>
     <row r="54" spans="1:20" ht="33" customHeight="1">
-      <c r="A54" s="161"/>
-      <c r="B54" s="159">
+      <c r="A54" s="160"/>
+      <c r="B54" s="158">
         <v>2</v>
       </c>
-      <c r="C54" s="152" t="s">
+      <c r="C54" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="152" t="s">
+      <c r="D54" s="151" t="s">
         <v>23</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="176"/>
+      <c r="F54" s="175"/>
       <c r="G54" s="13"/>
       <c r="H54" s="14"/>
       <c r="I54" s="15"/>
       <c r="J54" s="15"/>
-      <c r="K54" s="176"/>
+      <c r="K54" s="175"/>
       <c r="L54" s="13"/>
       <c r="M54" s="14"/>
       <c r="N54" s="15"/>
       <c r="O54" s="15"/>
-      <c r="P54" s="176"/>
+      <c r="P54" s="175"/>
       <c r="Q54" s="13"/>
       <c r="R54" s="14"/>
       <c r="S54" s="15"/>
       <c r="T54" s="15"/>
     </row>
     <row r="55" spans="1:20" ht="33" customHeight="1">
-      <c r="A55" s="161"/>
-      <c r="B55" s="149"/>
-      <c r="C55" s="151"/>
-      <c r="D55" s="151"/>
+      <c r="A55" s="160"/>
+      <c r="B55" s="148"/>
+      <c r="C55" s="150"/>
+      <c r="D55" s="150"/>
       <c r="E55" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F55" s="176"/>
+      <c r="F55" s="175"/>
       <c r="G55" s="13"/>
       <c r="H55" s="14"/>
       <c r="I55" s="15"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="176"/>
+      <c r="K55" s="175"/>
       <c r="L55" s="13"/>
       <c r="M55" s="14"/>
       <c r="N55" s="15"/>
       <c r="O55" s="15"/>
-      <c r="P55" s="176"/>
+      <c r="P55" s="175"/>
       <c r="Q55" s="13"/>
       <c r="R55" s="14"/>
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
     </row>
     <row r="56" spans="1:20" ht="33" customHeight="1">
-      <c r="A56" s="161"/>
-      <c r="B56" s="159">
+      <c r="A56" s="160"/>
+      <c r="B56" s="158">
         <v>3</v>
       </c>
-      <c r="C56" s="152" t="s">
+      <c r="C56" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="152" t="s">
+      <c r="D56" s="151" t="s">
         <v>25</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="176"/>
+      <c r="F56" s="175"/>
       <c r="G56" s="13"/>
       <c r="H56" s="14"/>
       <c r="I56" s="15"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="176"/>
+      <c r="K56" s="175"/>
       <c r="L56" s="13"/>
       <c r="M56" s="14"/>
       <c r="N56" s="15"/>
       <c r="O56" s="15"/>
-      <c r="P56" s="176"/>
+      <c r="P56" s="175"/>
       <c r="Q56" s="13"/>
       <c r="R56" s="14"/>
       <c r="S56" s="15"/>
       <c r="T56" s="15"/>
     </row>
     <row r="57" spans="1:20" ht="33" customHeight="1">
-      <c r="A57" s="161"/>
-      <c r="B57" s="149"/>
-      <c r="C57" s="151"/>
-      <c r="D57" s="151"/>
+      <c r="A57" s="160"/>
+      <c r="B57" s="148"/>
+      <c r="C57" s="150"/>
+      <c r="D57" s="150"/>
       <c r="E57" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F57" s="176"/>
+      <c r="F57" s="175"/>
       <c r="G57" s="13"/>
       <c r="H57" s="14"/>
       <c r="I57" s="15"/>
       <c r="J57" s="15"/>
-      <c r="K57" s="176"/>
+      <c r="K57" s="175"/>
       <c r="L57" s="13"/>
       <c r="M57" s="14"/>
       <c r="N57" s="15"/>
       <c r="O57" s="15"/>
-      <c r="P57" s="176"/>
+      <c r="P57" s="175"/>
       <c r="Q57" s="13"/>
       <c r="R57" s="14"/>
       <c r="S57" s="15"/>
       <c r="T57" s="15"/>
     </row>
     <row r="58" spans="1:20" ht="33" customHeight="1">
-      <c r="A58" s="161"/>
-      <c r="B58" s="159">
+      <c r="A58" s="160"/>
+      <c r="B58" s="158">
         <v>4</v>
       </c>
-      <c r="C58" s="152" t="s">
+      <c r="C58" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="152" t="s">
+      <c r="D58" s="151" t="s">
         <v>27</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="176"/>
+      <c r="F58" s="175"/>
       <c r="G58" s="13"/>
       <c r="H58" s="14"/>
       <c r="I58" s="15"/>
       <c r="J58" s="15"/>
-      <c r="K58" s="176"/>
+      <c r="K58" s="175"/>
       <c r="L58" s="13"/>
       <c r="M58" s="14"/>
       <c r="N58" s="15"/>
       <c r="O58" s="15"/>
-      <c r="P58" s="176"/>
+      <c r="P58" s="175"/>
       <c r="Q58" s="13"/>
       <c r="R58" s="14"/>
       <c r="S58" s="15"/>
       <c r="T58" s="15"/>
     </row>
     <row r="59" spans="1:20" ht="33" customHeight="1">
-      <c r="A59" s="161"/>
-      <c r="B59" s="149"/>
-      <c r="C59" s="151"/>
-      <c r="D59" s="151"/>
+      <c r="A59" s="160"/>
+      <c r="B59" s="148"/>
+      <c r="C59" s="150"/>
+      <c r="D59" s="150"/>
       <c r="E59" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F59" s="177"/>
+      <c r="F59" s="150"/>
       <c r="G59" s="13"/>
       <c r="H59" s="14"/>
       <c r="I59" s="15"/>
       <c r="J59" s="21"/>
-      <c r="K59" s="177"/>
+      <c r="K59" s="150"/>
       <c r="L59" s="13"/>
       <c r="M59" s="14"/>
       <c r="N59" s="15"/>
       <c r="O59" s="21"/>
-      <c r="P59" s="177"/>
+      <c r="P59" s="150"/>
       <c r="Q59" s="13"/>
       <c r="R59" s="14"/>
       <c r="S59" s="15"/>
       <c r="T59" s="21"/>
     </row>
     <row r="60" spans="1:20" ht="33" customHeight="1">
-      <c r="A60" s="161"/>
-      <c r="B60" s="159">
+      <c r="A60" s="160"/>
+      <c r="B60" s="158">
         <v>5</v>
       </c>
-      <c r="C60" s="152" t="s">
+      <c r="C60" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="152" t="s">
+      <c r="D60" s="151" t="s">
         <v>29</v>
       </c>
       <c r="E60" s="20" t="s">
@@ -4651,10 +4681,10 @@
       <c r="T60" s="15"/>
     </row>
     <row r="61" spans="1:20" ht="33" customHeight="1">
-      <c r="A61" s="161"/>
-      <c r="B61" s="149"/>
-      <c r="C61" s="151"/>
-      <c r="D61" s="151"/>
+      <c r="A61" s="160"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="150"/>
+      <c r="D61" s="150"/>
       <c r="E61" s="20" t="s">
         <v>21</v>
       </c>
@@ -4675,14 +4705,14 @@
       <c r="T61" s="15"/>
     </row>
     <row r="62" spans="1:20" ht="33" customHeight="1">
-      <c r="A62" s="161"/>
-      <c r="B62" s="153">
+      <c r="A62" s="160"/>
+      <c r="B62" s="152">
         <v>6</v>
       </c>
-      <c r="C62" s="154" t="s">
+      <c r="C62" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="154" t="s">
+      <c r="D62" s="153" t="s">
         <v>31</v>
       </c>
       <c r="E62" s="20" t="s">
@@ -4705,10 +4735,10 @@
       <c r="T62" s="15"/>
     </row>
     <row r="63" spans="1:20" ht="33" customHeight="1" thickBot="1">
-      <c r="A63" s="162"/>
-      <c r="B63" s="147"/>
-      <c r="C63" s="155"/>
-      <c r="D63" s="155"/>
+      <c r="A63" s="161"/>
+      <c r="B63" s="146"/>
+      <c r="C63" s="154"/>
+      <c r="D63" s="154"/>
       <c r="E63" s="23" t="s">
         <v>21</v>
       </c>
@@ -4729,16 +4759,16 @@
       <c r="T63" s="25"/>
     </row>
     <row r="64" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A64" s="170" t="s">
+      <c r="A64" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="148">
+      <c r="B64" s="147">
         <v>1</v>
       </c>
-      <c r="C64" s="150" t="s">
+      <c r="C64" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="D64" s="150" t="s">
+      <c r="D64" s="149" t="s">
         <v>19</v>
       </c>
       <c r="E64" s="11" t="s">
@@ -4791,10 +4821,10 @@
       </c>
     </row>
     <row r="65" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A65" s="161"/>
-      <c r="B65" s="149"/>
-      <c r="C65" s="151"/>
-      <c r="D65" s="151"/>
+      <c r="A65" s="160"/>
+      <c r="B65" s="148"/>
+      <c r="C65" s="150"/>
+      <c r="D65" s="150"/>
       <c r="E65" s="19" t="s">
         <v>21</v>
       </c>
@@ -4845,14 +4875,14 @@
       </c>
     </row>
     <row r="66" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A66" s="161"/>
-      <c r="B66" s="159">
+      <c r="A66" s="160"/>
+      <c r="B66" s="158">
         <v>2</v>
       </c>
-      <c r="C66" s="152" t="s">
+      <c r="C66" s="151" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="152" t="s">
+      <c r="D66" s="151" t="s">
         <v>23</v>
       </c>
       <c r="E66" s="20" t="s">
@@ -4905,10 +4935,10 @@
       </c>
     </row>
     <row r="67" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A67" s="161"/>
-      <c r="B67" s="149"/>
-      <c r="C67" s="151"/>
-      <c r="D67" s="151"/>
+      <c r="A67" s="160"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="150"/>
+      <c r="D67" s="150"/>
       <c r="E67" s="20" t="s">
         <v>21</v>
       </c>
@@ -4959,14 +4989,14 @@
       </c>
     </row>
     <row r="68" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A68" s="161"/>
-      <c r="B68" s="159">
+      <c r="A68" s="160"/>
+      <c r="B68" s="158">
         <v>3</v>
       </c>
-      <c r="C68" s="152" t="s">
+      <c r="C68" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="152" t="s">
+      <c r="D68" s="151" t="s">
         <v>25</v>
       </c>
       <c r="E68" s="20" t="s">
@@ -5019,10 +5049,10 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A69" s="161"/>
-      <c r="B69" s="149"/>
-      <c r="C69" s="151"/>
-      <c r="D69" s="151"/>
+      <c r="A69" s="160"/>
+      <c r="B69" s="148"/>
+      <c r="C69" s="150"/>
+      <c r="D69" s="150"/>
       <c r="E69" s="20" t="s">
         <v>21</v>
       </c>
@@ -5032,8 +5062,8 @@
       <c r="G69" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="H69" s="137" t="s">
-        <v>92</v>
+      <c r="H69" s="138" t="s">
+        <v>113</v>
       </c>
       <c r="I69" s="15" t="s">
         <v>78</v>
@@ -5073,14 +5103,14 @@
       </c>
     </row>
     <row r="70" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A70" s="161"/>
-      <c r="B70" s="159">
+      <c r="A70" s="160"/>
+      <c r="B70" s="158">
         <v>4</v>
       </c>
-      <c r="C70" s="152" t="s">
+      <c r="C70" s="151" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="152" t="s">
+      <c r="D70" s="151" t="s">
         <v>27</v>
       </c>
       <c r="E70" s="20" t="s">
@@ -5133,10 +5163,10 @@
       </c>
     </row>
     <row r="71" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A71" s="161"/>
-      <c r="B71" s="149"/>
-      <c r="C71" s="151"/>
-      <c r="D71" s="151"/>
+      <c r="A71" s="160"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="150"/>
+      <c r="D71" s="150"/>
       <c r="E71" s="20" t="s">
         <v>21</v>
       </c>
@@ -5177,14 +5207,14 @@
       </c>
     </row>
     <row r="72" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A72" s="161"/>
-      <c r="B72" s="159">
+      <c r="A72" s="160"/>
+      <c r="B72" s="158">
         <v>5</v>
       </c>
-      <c r="C72" s="152" t="s">
+      <c r="C72" s="151" t="s">
         <v>28</v>
       </c>
-      <c r="D72" s="152" t="s">
+      <c r="D72" s="151" t="s">
         <v>29</v>
       </c>
       <c r="E72" s="20" t="s">
@@ -5217,10 +5247,10 @@
       <c r="T72" s="53"/>
     </row>
     <row r="73" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A73" s="161"/>
-      <c r="B73" s="149"/>
-      <c r="C73" s="151"/>
-      <c r="D73" s="151"/>
+      <c r="A73" s="160"/>
+      <c r="B73" s="148"/>
+      <c r="C73" s="150"/>
+      <c r="D73" s="150"/>
       <c r="E73" s="20" t="s">
         <v>21</v>
       </c>
@@ -5241,14 +5271,14 @@
       <c r="T73" s="53"/>
     </row>
     <row r="74" spans="1:20" ht="36.950000000000003" customHeight="1">
-      <c r="A74" s="161"/>
-      <c r="B74" s="153">
+      <c r="A74" s="160"/>
+      <c r="B74" s="152">
         <v>6</v>
       </c>
-      <c r="C74" s="154" t="s">
+      <c r="C74" s="153" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="154" t="s">
+      <c r="D74" s="153" t="s">
         <v>31</v>
       </c>
       <c r="E74" s="20" t="s">
@@ -5271,10 +5301,10 @@
       <c r="T74" s="53"/>
     </row>
     <row r="75" spans="1:20" ht="36.950000000000003" customHeight="1" thickBot="1">
-      <c r="A75" s="162"/>
-      <c r="B75" s="147"/>
-      <c r="C75" s="155"/>
-      <c r="D75" s="155"/>
+      <c r="A75" s="161"/>
+      <c r="B75" s="146"/>
+      <c r="C75" s="154"/>
+      <c r="D75" s="154"/>
       <c r="E75" s="23" t="s">
         <v>21</v>
       </c>
@@ -5311,13 +5341,13 @@
       <c r="J76" s="38"/>
       <c r="K76" s="35"/>
       <c r="L76" s="39"/>
-      <c r="M76" s="182"/>
-      <c r="N76" s="183"/>
-      <c r="O76" s="183"/>
-      <c r="P76" s="184"/>
-      <c r="Q76" s="185"/>
-      <c r="R76" s="184"/>
-      <c r="S76" s="186"/>
+      <c r="M76" s="180"/>
+      <c r="N76" s="181"/>
+      <c r="O76" s="181"/>
+      <c r="P76" s="182"/>
+      <c r="Q76" s="183"/>
+      <c r="R76" s="182"/>
+      <c r="S76" s="184"/>
       <c r="T76" s="38"/>
     </row>
     <row r="77" spans="1:20" ht="21" customHeight="1">
@@ -5345,17 +5375,17 @@
     <row r="78" spans="1:20" ht="39" customHeight="1">
       <c r="A78" s="45"/>
       <c r="B78" s="46"/>
-      <c r="C78" s="171" t="s">
+      <c r="C78" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="168"/>
-      <c r="E78" s="168"/>
-      <c r="F78" s="168"/>
-      <c r="G78" s="168"/>
-      <c r="H78" s="168"/>
-      <c r="I78" s="168"/>
-      <c r="J78" s="168"/>
-      <c r="K78" s="169"/>
+      <c r="D78" s="167"/>
+      <c r="E78" s="167"/>
+      <c r="F78" s="167"/>
+      <c r="G78" s="167"/>
+      <c r="H78" s="167"/>
+      <c r="I78" s="167"/>
+      <c r="J78" s="167"/>
+      <c r="K78" s="168"/>
       <c r="L78" s="18"/>
       <c r="M78" s="32"/>
       <c r="N78" s="47"/>
@@ -5369,17 +5399,17 @@
     <row r="79" spans="1:20" ht="28.5" customHeight="1">
       <c r="A79" s="45"/>
       <c r="B79" s="46"/>
-      <c r="C79" s="172" t="s">
+      <c r="C79" s="171" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="168"/>
-      <c r="E79" s="168"/>
-      <c r="F79" s="168"/>
-      <c r="G79" s="168"/>
-      <c r="H79" s="168"/>
-      <c r="I79" s="168"/>
-      <c r="J79" s="168"/>
-      <c r="K79" s="169"/>
+      <c r="D79" s="167"/>
+      <c r="E79" s="167"/>
+      <c r="F79" s="167"/>
+      <c r="G79" s="167"/>
+      <c r="H79" s="167"/>
+      <c r="I79" s="167"/>
+      <c r="J79" s="167"/>
+      <c r="K79" s="168"/>
       <c r="L79" s="18"/>
       <c r="M79" s="32"/>
       <c r="N79" s="47"/>
@@ -5393,17 +5423,17 @@
     <row r="80" spans="1:20" ht="28.5" customHeight="1">
       <c r="A80" s="45"/>
       <c r="B80" s="46"/>
-      <c r="C80" s="173" t="s">
+      <c r="C80" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="D80" s="168"/>
-      <c r="E80" s="168"/>
-      <c r="F80" s="168"/>
-      <c r="G80" s="168"/>
-      <c r="H80" s="168"/>
-      <c r="I80" s="168"/>
-      <c r="J80" s="168"/>
-      <c r="K80" s="169"/>
+      <c r="D80" s="167"/>
+      <c r="E80" s="167"/>
+      <c r="F80" s="167"/>
+      <c r="G80" s="167"/>
+      <c r="H80" s="167"/>
+      <c r="I80" s="167"/>
+      <c r="J80" s="167"/>
+      <c r="K80" s="168"/>
       <c r="L80" s="18"/>
       <c r="M80" s="32"/>
       <c r="N80" s="47"/>
@@ -5417,17 +5447,17 @@
     <row r="81" spans="1:20" ht="28.5" customHeight="1">
       <c r="A81" s="45"/>
       <c r="B81" s="46"/>
-      <c r="C81" s="178" t="s">
+      <c r="C81" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="179"/>
-      <c r="E81" s="179"/>
-      <c r="F81" s="179"/>
-      <c r="G81" s="179"/>
-      <c r="H81" s="179"/>
-      <c r="I81" s="179"/>
-      <c r="J81" s="179"/>
-      <c r="K81" s="180"/>
+      <c r="D81" s="177"/>
+      <c r="E81" s="177"/>
+      <c r="F81" s="177"/>
+      <c r="G81" s="177"/>
+      <c r="H81" s="177"/>
+      <c r="I81" s="177"/>
+      <c r="J81" s="177"/>
+      <c r="K81" s="178"/>
       <c r="L81" s="18"/>
       <c r="M81" s="32"/>
       <c r="N81" s="47"/>
@@ -5441,17 +5471,17 @@
     <row r="82" spans="1:20" ht="28.5" customHeight="1">
       <c r="A82" s="45"/>
       <c r="B82" s="46"/>
-      <c r="C82" s="181" t="s">
+      <c r="C82" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="D82" s="179"/>
-      <c r="E82" s="179"/>
-      <c r="F82" s="179"/>
-      <c r="G82" s="179"/>
-      <c r="H82" s="179"/>
-      <c r="I82" s="179"/>
-      <c r="J82" s="179"/>
-      <c r="K82" s="180"/>
+      <c r="D82" s="177"/>
+      <c r="E82" s="177"/>
+      <c r="F82" s="177"/>
+      <c r="G82" s="177"/>
+      <c r="H82" s="177"/>
+      <c r="I82" s="177"/>
+      <c r="J82" s="177"/>
+      <c r="K82" s="178"/>
       <c r="L82" s="18"/>
       <c r="M82" s="32"/>
       <c r="N82" s="47"/>
@@ -5465,17 +5495,17 @@
     <row r="83" spans="1:20" ht="28.5" customHeight="1">
       <c r="A83" s="45"/>
       <c r="B83" s="46"/>
-      <c r="C83" s="174" t="s">
+      <c r="C83" s="173" t="s">
         <v>45</v>
       </c>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
-      <c r="F83" s="168"/>
-      <c r="G83" s="168"/>
-      <c r="H83" s="168"/>
-      <c r="I83" s="168"/>
-      <c r="J83" s="168"/>
-      <c r="K83" s="169"/>
+      <c r="D83" s="167"/>
+      <c r="E83" s="167"/>
+      <c r="F83" s="167"/>
+      <c r="G83" s="167"/>
+      <c r="H83" s="167"/>
+      <c r="I83" s="167"/>
+      <c r="J83" s="167"/>
+      <c r="K83" s="168"/>
       <c r="L83" s="18"/>
       <c r="M83" s="32"/>
       <c r="N83" s="47"/>
@@ -5489,17 +5519,17 @@
     <row r="84" spans="1:20" ht="28.5" customHeight="1">
       <c r="A84" s="45"/>
       <c r="B84" s="46"/>
-      <c r="C84" s="167" t="s">
+      <c r="C84" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="168"/>
-      <c r="E84" s="168"/>
-      <c r="F84" s="168"/>
-      <c r="G84" s="168"/>
-      <c r="H84" s="168"/>
-      <c r="I84" s="168"/>
-      <c r="J84" s="168"/>
-      <c r="K84" s="169"/>
+      <c r="D84" s="167"/>
+      <c r="E84" s="167"/>
+      <c r="F84" s="167"/>
+      <c r="G84" s="167"/>
+      <c r="H84" s="167"/>
+      <c r="I84" s="167"/>
+      <c r="J84" s="167"/>
+      <c r="K84" s="168"/>
       <c r="L84" s="18"/>
       <c r="M84" s="32"/>
       <c r="N84" s="47"/>
